--- a/biology/Botanique/Magnolia_yoroconte/Magnolia_yoroconte.xlsx
+++ b/biology/Botanique/Magnolia_yoroconte/Magnolia_yoroconte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia yoroconte est une espèce d'arbres de la famille des Magnoliaceae. Elle se rencontre au Belize, au Guatemala, au Honduras, et au Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En anglais l'arbre est appelé yoroconte magnolia. En français il est appelé magnolia yoroconte. Au Honduras il possède plusieurs dénominations en espagnol : canelón, cucharo, redondo («rond»), yoroconte ou simplement magnolia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais l'arbre est appelé yoroconte magnolia. En français il est appelé magnolia yoroconte. Au Honduras il possède plusieurs dénominations en espagnol : canelón, cucharo, redondo («rond»), yoroconte ou simplement magnolia.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand arbre ou arbre moyen au feuillage persistant pouvant atteindre 40 m. Tronc rectiligne cylindrique sans branches jusqu'à environ 20 m du sol. Écorce jaunâtre rugueuse présentant des lenticelles. Les feuilles alternes simples, de formes elliptiques à oblongues, mesurent entre 10 et 25 cm. Leur marge est entière. Le sommet du limbe est aigu alors que la base est arrondie ou obtuse. Le pétiole mesure entre 1 et 2 cm. Les deux faces peuvent être glabres ou présenter une légère pubescence. Les fleurs blanches isolées hermaphrodites actinomorphes mesurent environ 6 à 10 cm. Le périanthe est composé de six à dix tépales blancs obovaux mesurant entre 4 et 6 cm.
 </t>
@@ -573,9 +589,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente au Belize en altitude sur les monts Maya[3] bénéficiant d'un climat plus frais et plus humide[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente au Belize en altitude sur les monts Maya bénéficiant d'un climat plus frais et plus humide.
 </t>
         </is>
       </c>
